--- a/CodeSystem-mtici-score-cs.xlsx
+++ b/CodeSystem-mtici-score-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>mTICI Score Code System</t>
+    <t>MTICI Score Code System</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>CodeSystem containing the codes to represent the mTICI score.</t>
+    <t>CodeSystem containing the codes to represent the MTICI score.</t>
   </si>
   <si>
     <t>Purpose</t>
